--- a/data/유사도.xlsx
+++ b/data/유사도.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18348" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="446">
   <si>
     <t>강서체육공원</t>
   </si>
@@ -80,12 +80,6 @@
     <t>광안대교</t>
   </si>
   <si>
-    <t>용호만유람선(0.2133)</t>
-  </si>
-  <si>
-    <t>광안대교sup(0.1889)</t>
-  </si>
-  <si>
     <t>남항대교(0.1791)</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>부산어촌민속관(0.1612)</t>
   </si>
   <si>
-    <t>광안대교sup</t>
-  </si>
-  <si>
     <t>광안대교(0.1889)</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
     <t>성지곡수원지(0.1643)</t>
   </si>
   <si>
-    <t>안데르센동화마을(0.1602)</t>
-  </si>
-  <si>
     <t>부산박물관(0.1536)</t>
   </si>
   <si>
@@ -143,9 +131,6 @@
     <t>태종대(0.2019)</t>
   </si>
   <si>
-    <t>안데르센동화마을(0.1780)</t>
-  </si>
-  <si>
     <t>부산박물관(0.1775)</t>
   </si>
   <si>
@@ -179,9 +164,6 @@
     <t>아미르공원(0.3018)</t>
   </si>
   <si>
-    <t>안데르센동화마을(0.2192)</t>
-  </si>
-  <si>
     <t>맥도생태공원(0.1959)</t>
   </si>
   <si>
@@ -236,9 +218,6 @@
     <t>대저생태공원(0.1663)</t>
   </si>
   <si>
-    <t>광안대교sup(0.1601)</t>
-  </si>
-  <si>
     <t>깡깡이예술마을</t>
   </si>
   <si>
@@ -269,9 +248,6 @@
     <t>아미산전망대(0.2667)</t>
   </si>
   <si>
-    <t>안데르센동화마을(0.2075)</t>
-  </si>
-  <si>
     <t>부산어촌민속관(0.1966)</t>
   </si>
   <si>
@@ -371,9 +347,6 @@
     <t>해운대해수욕장(0.2001)</t>
   </si>
   <si>
-    <t>안데르센동화마을(0.1870)</t>
-  </si>
-  <si>
     <t>태종대(0.1669)</t>
   </si>
   <si>
@@ -392,9 +365,6 @@
     <t>부산항대교(0.1593)</t>
   </si>
   <si>
-    <t>안데르센동화마을(0.1531)</t>
-  </si>
-  <si>
     <t>다대포꿈의낙조분수(0.1261)</t>
   </si>
   <si>
@@ -416,9 +386,6 @@
     <t>감천문화마을(0.1567)</t>
   </si>
   <si>
-    <t>동아대석당박물관</t>
-  </si>
-  <si>
     <t>부산어촌민속관(0.2198)</t>
   </si>
   <si>
@@ -533,9 +500,6 @@
     <t>흰여울문화마을(0.2083)</t>
   </si>
   <si>
-    <t>안데르센동화마을(0.2004)</t>
-  </si>
-  <si>
     <t>성지곡수원지(0.1409)</t>
   </si>
   <si>
@@ -593,15 +557,9 @@
     <t>구덕야영장(0.1869)</t>
   </si>
   <si>
-    <t>안데르센동화마을(0.1709)</t>
-  </si>
-  <si>
     <t>부산프리미엄아울렛</t>
   </si>
   <si>
-    <t>안데르센동화마을(0.2581)</t>
-  </si>
-  <si>
     <t>동래온천(0.2521)</t>
   </si>
   <si>
@@ -749,9 +707,6 @@
     <t>장산(0.3212)</t>
   </si>
   <si>
-    <t>안데르센동화마을(0.1968)</t>
-  </si>
-  <si>
     <t>금강공원(0.1704)</t>
   </si>
   <si>
@@ -884,9 +839,6 @@
     <t>낙동강하구에코센터(0.0983)</t>
   </si>
   <si>
-    <t>안데르센동화마을</t>
-  </si>
-  <si>
     <t>부산프리미엄아울렛(0.2581)</t>
   </si>
   <si>
@@ -935,9 +887,6 @@
     <t>화명생태공원(0.1088)</t>
   </si>
   <si>
-    <t>광안대교sup(0.0859)</t>
-  </si>
-  <si>
     <t>영화의전당</t>
   </si>
   <si>
@@ -1019,9 +968,6 @@
     <t>대저생태공원(0.1603)</t>
   </si>
   <si>
-    <t>안데르센동화마을(0.1570)</t>
-  </si>
-  <si>
     <t>이기대도시자연공원</t>
   </si>
   <si>
@@ -1196,9 +1142,6 @@
     <t>용두산공원(0.2366)</t>
   </si>
   <si>
-    <t>안데르센동화마을(0.2335)</t>
-  </si>
-  <si>
     <t>해운대블루라인파크</t>
   </si>
   <si>
@@ -1212,9 +1155,6 @@
   </si>
   <si>
     <t>부산어촌민속관(0.1337)</t>
-  </si>
-  <si>
-    <t>안데르센동화마을(0.1282)</t>
   </si>
   <si>
     <t>해운대해수욕장</t>
@@ -1348,26 +1288,10 @@
     <t>석당박물관</t>
   </si>
   <si>
-    <t>광안리SUPZONE</t>
-  </si>
-  <si>
-    <t>용호만부두</t>
-  </si>
-  <si>
     <t>다대포낙조분수</t>
   </si>
   <si>
-    <t>을숙도생태공원</t>
-  </si>
-  <si>
     <t>오륙도</t>
-  </si>
-  <si>
-    <t>안데르센마을</t>
-  </si>
-  <si>
-    <t>을숙도생태공원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>용호만유람선부두</t>
@@ -1376,6 +1300,92 @@
   <si>
     <t>리뷰 유사 관광지</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석당박물관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.1602)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.1780)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.2192)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.2075)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.1870)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.1531)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.2004)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.1709)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.2581)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.1968)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.1570)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.2335)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안데르센 동화마을(0.1282)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>을숙도</t>
+  </si>
+  <si>
+    <t>용호만유람선부두(0.2133)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용호만유람선부두</t>
+  </si>
+  <si>
+    <t>광안리 SUPZONE</t>
+  </si>
+  <si>
+    <t>광안리 SUPZONE(0.1889)</t>
+  </si>
+  <si>
+    <t>광안리 SUPZONE(0.1601)</t>
+  </si>
+  <si>
+    <t>광안리 SUPZONE(0.0859)</t>
   </si>
 </sst>
 </file>
@@ -1709,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1723,16 +1733,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="C1" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="D1" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -1743,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D2" s="1">
         <v>0.41374825999999998</v>
@@ -1754,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="D3" s="2">
         <v>0.39738620000000002</v>
@@ -1765,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>0.32796330000000001</v>
@@ -1776,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2">
         <v>0.29144266000000002</v>
@@ -1787,7 +1797,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>0.28122422000000002</v>
@@ -1801,7 +1811,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="D7" s="2">
         <v>0.50859089999999996</v>
@@ -1812,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D8" s="2">
         <v>0.34110439999999997</v>
@@ -1823,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2">
         <v>0.27322793000000001</v>
@@ -1834,7 +1844,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D10" s="2">
         <v>0.24072070000000001</v>
@@ -1842,10 +1852,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D11" s="2">
         <v>0.20586014</v>
@@ -1859,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2">
         <v>0.54379696</v>
@@ -1870,7 +1880,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2">
         <v>0.52544760000000001</v>
@@ -1881,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2">
         <v>0.49768275000000001</v>
@@ -1892,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D15" s="2">
         <v>0.47173019999999999</v>
@@ -1903,7 +1913,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>0.44261729999999999</v>
@@ -1914,10 +1924,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>440</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D17" s="2">
         <v>0.54046534999999996</v>
@@ -1925,10 +1935,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>443</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D18" s="2">
         <v>0.53530909999999998</v>
@@ -1936,10 +1946,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2">
         <v>0.50272744999999996</v>
@@ -1947,10 +1957,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D20" s="2">
         <v>0.41646397000000002</v>
@@ -1958,10 +1968,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2">
         <v>0.34748736000000002</v>
@@ -1969,10 +1979,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>442</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
@@ -1983,10 +1993,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="D23" s="2">
         <v>0.46821874000000002</v>
@@ -1994,10 +2004,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D24" s="2">
         <v>0.39667987999999998</v>
@@ -2005,10 +2015,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2">
         <v>0.33464085999999998</v>
@@ -2016,10 +2026,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="D26" s="2">
         <v>0.32710284000000001</v>
@@ -2027,13 +2037,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D27" s="2">
         <v>0.49620305999999997</v>
@@ -2041,10 +2051,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D28" s="2">
         <v>0.45024140000000001</v>
@@ -2052,10 +2062,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>0.43088531000000002</v>
@@ -2063,7 +2073,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>33</v>
+        <v>424</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>0</v>
@@ -2074,10 +2084,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D31" s="2">
         <v>0.40979248000000001</v>
@@ -2085,10 +2095,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>0</v>
@@ -2099,10 +2109,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D33" s="2">
         <v>0.43088531000000002</v>
@@ -2110,10 +2120,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D34" s="2">
         <v>0.35569220000000001</v>
@@ -2121,7 +2131,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>39</v>
+        <v>425</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1</v>
@@ -2132,10 +2142,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D36" s="2">
         <v>0.31115611999999998</v>
@@ -2143,13 +2153,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D37" s="2">
         <v>0.62337030000000004</v>
@@ -2157,10 +2167,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D38" s="2">
         <v>0.62319462999999997</v>
@@ -2168,10 +2178,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2">
         <v>0.58716179999999996</v>
@@ -2179,10 +2189,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="D40" s="2">
         <v>0.54612075999999998</v>
@@ -2190,10 +2200,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D41" s="2">
         <v>0.46558147999999999</v>
@@ -2201,13 +2211,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D42" s="2">
         <v>0.5872018</v>
@@ -2215,10 +2225,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D43" s="2">
         <v>0.51616600000000001</v>
@@ -2226,10 +2236,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D44" s="2">
         <v>0.3844438</v>
@@ -2237,10 +2247,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>51</v>
+        <v>426</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="D45" s="2">
         <v>0.38108194000000001</v>
@@ -2248,10 +2258,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D46" s="2">
         <v>0.37295656999999999</v>
@@ -2259,13 +2269,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D47" s="2">
         <v>0.80845725999999996</v>
@@ -2273,10 +2283,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="D48" s="2">
         <v>0.72607577000000001</v>
@@ -2284,10 +2294,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D49" s="2">
         <v>0.68558439999999998</v>
@@ -2295,10 +2305,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D50" s="2">
         <v>0.61955959999999999</v>
@@ -2306,10 +2316,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D51" s="2">
         <v>0.58716179999999996</v>
@@ -2317,13 +2327,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D52" s="2">
         <v>0.36315136999999997</v>
@@ -2331,10 +2341,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D53" s="2">
         <v>0.33370438000000002</v>
@@ -2342,10 +2352,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D54" s="2">
         <v>0.33134029999999998</v>
@@ -2353,10 +2363,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D55" s="2">
         <v>0.32611899999999999</v>
@@ -2364,10 +2374,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D56" s="2">
         <v>0.32191333</v>
@@ -2375,13 +2385,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="D57" s="2">
         <v>0.52325390000000005</v>
@@ -2389,10 +2399,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D58" s="2">
         <v>0.43825686000000003</v>
@@ -2400,10 +2410,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D59" s="2">
         <v>0.33981679999999997</v>
@@ -2411,10 +2421,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D60" s="2">
         <v>0.33134029999999998</v>
@@ -2422,10 +2432,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>70</v>
+        <v>444</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D61" s="2">
         <v>0.32763989999999998</v>
@@ -2433,13 +2443,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D62" s="2">
         <v>0.58472729999999995</v>
@@ -2447,10 +2457,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D63" s="2">
         <v>0.4953227</v>
@@ -2458,10 +2468,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D64" s="2">
         <v>0.38841589999999998</v>
@@ -2469,10 +2479,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D65" s="2">
         <v>0.34787315000000002</v>
@@ -2480,7 +2490,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>7</v>
@@ -2491,13 +2501,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D67" s="2">
         <v>0.84392449999999997</v>
@@ -2505,10 +2515,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D68" s="2">
         <v>0.46238069999999998</v>
@@ -2516,10 +2526,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D69" s="2">
         <v>0.39600044000000001</v>
@@ -2527,10 +2537,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2">
         <v>0.37295656999999999</v>
@@ -2538,10 +2548,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D71" s="2">
         <v>0.31907089999999999</v>
@@ -2549,13 +2559,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D72" s="2">
         <v>0.59039140000000001</v>
@@ -2563,7 +2573,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
@@ -2574,10 +2584,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D74" s="2">
         <v>0.44944978000000002</v>
@@ -2585,10 +2595,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D75" s="2">
         <v>0.44503432999999998</v>
@@ -2596,10 +2606,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D76" s="2">
         <v>0.39453559999999999</v>
@@ -2607,13 +2617,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="D77" s="2">
         <v>0.41731659999999998</v>
@@ -2621,10 +2631,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D78" s="2">
         <v>0.35507222999999999</v>
@@ -2632,10 +2642,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="D79" s="2">
         <v>0.35357696</v>
@@ -2643,10 +2653,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D80" s="2">
         <v>0.23543512999999999</v>
@@ -2654,10 +2664,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D81" s="2">
         <v>0.22833945999999999</v>
@@ -2665,13 +2675,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D82" s="2">
         <v>0.79911659999999995</v>
@@ -2679,10 +2689,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D83" s="2">
         <v>0.45894307000000001</v>
@@ -2690,10 +2700,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D84" s="2">
         <v>0.32710286999999999</v>
@@ -2701,7 +2711,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
@@ -2712,10 +2722,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D86" s="2">
         <v>0.24210402</v>
@@ -2723,13 +2733,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="D87" s="2">
         <v>0.79911659999999995</v>
@@ -2737,10 +2747,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D88" s="2">
         <v>0.44424307000000002</v>
@@ -2748,10 +2758,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="D89" s="2">
         <v>0.40044495000000002</v>
@@ -2759,10 +2769,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D90" s="2">
         <v>0.33464092000000001</v>
@@ -2770,10 +2780,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D91" s="2">
         <v>0.30488786000000001</v>
@@ -2781,13 +2791,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D92" s="2">
         <v>0.68469380000000002</v>
@@ -2795,10 +2805,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D93" s="2">
         <v>0.62753570000000003</v>
@@ -2806,10 +2816,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D94" s="2">
         <v>0.60800109999999996</v>
@@ -2817,7 +2827,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>0</v>
@@ -2828,10 +2838,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B96" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D96" s="2">
         <v>0.48785309999999998</v>
@@ -2839,13 +2849,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="D97" s="2">
         <v>0.57319164</v>
@@ -2853,10 +2863,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
-        <v>115</v>
+        <v>428</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D98" s="2">
         <v>0.51559710000000003</v>
@@ -2864,10 +2874,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B99" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D99" s="2">
         <v>0.48444959999999998</v>
@@ -2875,7 +2885,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
@@ -2886,10 +2896,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B101" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D101" s="2">
         <v>0.32538798000000002</v>
@@ -2897,13 +2907,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D102" s="2">
         <v>0.33981679999999997</v>
@@ -2911,10 +2921,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D103" s="2">
         <v>0.32191333</v>
@@ -2922,10 +2932,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B104" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D104" s="2">
         <v>0.27660351999999999</v>
@@ -2933,10 +2943,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B105" t="s">
-        <v>122</v>
+        <v>429</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D105" s="2">
         <v>0.22877391999999999</v>
@@ -2944,10 +2954,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B106" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D106" s="2">
         <v>0.22762309999999999</v>
@@ -2955,13 +2965,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="D107" s="2">
         <v>0.37709290000000001</v>
@@ -2969,10 +2979,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B108" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D108" s="2">
         <v>0.3610679</v>
@@ -2980,10 +2990,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B109" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D109" s="2">
         <v>0.29023492000000001</v>
@@ -2991,10 +3001,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B110" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D110" s="2">
         <v>0.23968861999999999</v>
@@ -3002,10 +3012,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B111" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D111" s="2">
         <v>0.23739921999999999</v>
@@ -3013,13 +3023,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>423</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D112" s="2">
         <v>0.73913443000000001</v>
@@ -3027,10 +3037,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B113" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D113" s="2">
         <v>0.4875313</v>
@@ -3038,7 +3048,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B114" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1</v>
@@ -3049,10 +3059,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B115" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D115" s="2">
         <v>0.39066645999999999</v>
@@ -3060,10 +3070,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B116" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D116" s="2">
         <v>0.38108194000000001</v>
@@ -3071,13 +3081,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D117" s="2">
         <v>0.68469380000000002</v>
@@ -3085,10 +3095,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B118" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D118" s="2">
         <v>0.66631059999999998</v>
@@ -3096,10 +3106,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B119" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D119" s="2">
         <v>0.65399269999999998</v>
@@ -3107,10 +3117,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B120" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D120" s="2">
         <v>0.64241886000000004</v>
@@ -3118,7 +3128,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B121" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>0</v>
@@ -3129,13 +3139,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D122" s="2">
         <v>0.63904110000000003</v>
@@ -3143,10 +3153,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B123" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D123" s="2">
         <v>0.52634110000000001</v>
@@ -3154,10 +3164,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B124" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D124" s="2">
         <v>0.44001669999999998</v>
@@ -3165,10 +3175,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B125" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D125" s="2">
         <v>0.39600044000000001</v>
@@ -3176,10 +3186,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B126" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="D126" s="2">
         <v>0.39066645999999999</v>
@@ -3187,13 +3197,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D127" s="2">
         <v>0.49544614999999997</v>
@@ -3201,10 +3211,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B128" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D128" s="2">
         <v>0.43825686000000003</v>
@@ -3212,10 +3222,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B129" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D129" s="2">
         <v>0.3086198</v>
@@ -3223,10 +3233,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B130" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D130" s="2">
         <v>0.30098233000000002</v>
@@ -3234,10 +3244,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B131" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="D131" s="2">
         <v>0.29995804999999998</v>
@@ -3245,13 +3255,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D132" s="2">
         <v>0.46345979999999998</v>
@@ -3259,10 +3269,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B133" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D133" s="2">
         <v>0.39259972999999998</v>
@@ -3270,10 +3280,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B134" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D134" s="2">
         <v>0.37087863999999998</v>
@@ -3281,10 +3291,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B135" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D135" s="2">
         <v>0.35565433000000002</v>
@@ -3292,10 +3302,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B136" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D136" s="2">
         <v>0.34093547000000002</v>
@@ -3303,13 +3313,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D137" s="2">
         <v>0.41386383999999998</v>
@@ -3317,10 +3327,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B138" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D138" s="2">
         <v>0.398673</v>
@@ -3328,10 +3338,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B139" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D139" s="2">
         <v>0.34238297000000001</v>
@@ -3339,10 +3349,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B140" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D140" s="2">
         <v>0.33692466999999998</v>
@@ -3350,10 +3360,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B141" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D141" s="2">
         <v>0.31990552</v>
@@ -3361,13 +3371,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B142" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D142" s="2">
         <v>0.30105102</v>
@@ -3375,10 +3385,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B143" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D143" s="2">
         <v>0.28821342999999999</v>
@@ -3386,10 +3396,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B144" t="s">
-        <v>169</v>
+        <v>431</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D144" s="2">
         <v>0.27514212999999998</v>
@@ -3397,7 +3407,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B145" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>7</v>
@@ -3408,10 +3418,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B146" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D146" s="2">
         <v>0.23741298999999999</v>
@@ -3419,13 +3429,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B147" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="D147" s="2">
         <v>0.73913443000000001</v>
@@ -3433,10 +3443,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B148" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D148" s="2">
         <v>0.5872018</v>
@@ -3444,10 +3454,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B149" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D149" s="2">
         <v>0.50096315000000002</v>
@@ -3455,10 +3465,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B150" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D150" s="2">
         <v>0.46345979999999998</v>
@@ -3466,10 +3476,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B151" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D151" s="2">
         <v>0.41275372999999999</v>
@@ -3477,13 +3487,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B152" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D152" s="2">
         <v>0.51616600000000001</v>
@@ -3491,10 +3501,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B153" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D153" s="2">
         <v>0.50096315000000002</v>
@@ -3502,10 +3512,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D154" s="2">
         <v>0.44001669999999998</v>
@@ -3513,10 +3523,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B155" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D155" s="2">
         <v>0.34306645000000002</v>
@@ -3524,10 +3534,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B156" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D156" s="2">
         <v>0.34093547000000002</v>
@@ -3535,13 +3545,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B157" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D157" s="2">
         <v>0.75001390000000001</v>
@@ -3549,10 +3559,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B158" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D158" s="2">
         <v>0.47528621999999998</v>
@@ -3560,10 +3570,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B159" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D159" s="2">
         <v>0.45024140000000001</v>
@@ -3571,10 +3581,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B160" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D160" s="2">
         <v>0.42640435999999998</v>
@@ -3582,10 +3592,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B161" t="s">
-        <v>189</v>
+        <v>433</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D161" s="2">
         <v>0.36315136999999997</v>
@@ -3593,13 +3603,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B162" t="s">
-        <v>191</v>
+        <v>434</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D162" s="2">
         <v>0.35565433000000002</v>
@@ -3607,10 +3617,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B163" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D163" s="2">
         <v>0.29633700000000002</v>
@@ -3618,10 +3628,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B164" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D164" s="2">
         <v>0.29629063999999999</v>
@@ -3629,10 +3639,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B165" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D165" s="2">
         <v>0.29558469999999998</v>
@@ -3640,10 +3650,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B166" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D166" s="2">
         <v>0.29347697</v>
@@ -3651,13 +3661,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B167" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D167" s="2">
         <v>0.67384710000000003</v>
@@ -3665,10 +3675,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B168" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D168" s="2">
         <v>0.59039140000000001</v>
@@ -3676,7 +3686,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B169" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>17</v>
@@ -3687,10 +3697,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B170" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D170" s="2">
         <v>0.41495470000000001</v>
@@ -3698,10 +3708,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B171" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D171" s="2">
         <v>0.37780343999999999</v>
@@ -3709,13 +3719,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B172" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D172" s="2">
         <v>0.68558439999999998</v>
@@ -3723,10 +3733,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B173" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D173" s="2">
         <v>0.66713080000000002</v>
@@ -3734,10 +3744,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B174" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D174" s="2">
         <v>0.62337030000000004</v>
@@ -3745,10 +3755,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B175" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="D175" s="2">
         <v>0.56248920000000002</v>
@@ -3756,10 +3766,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B176" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D176" s="2">
         <v>0.50058435999999995</v>
@@ -3767,13 +3777,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B177" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D177" s="2">
         <v>0.80845725999999996</v>
@@ -3781,10 +3791,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B178" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="D178" s="2">
         <v>0.67215230000000004</v>
@@ -3792,10 +3802,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B179" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D179" s="2">
         <v>0.55820440000000004</v>
@@ -3803,10 +3813,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B180" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D180" s="2">
         <v>0.50058435999999995</v>
@@ -3814,10 +3824,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B181" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D181" s="2">
         <v>0.4172072</v>
@@ -3825,13 +3835,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B182" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D182" s="2">
         <v>0.63904110000000003</v>
@@ -3839,10 +3849,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B183" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="D183" s="2">
         <v>0.4875313</v>
@@ -3850,10 +3860,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B184" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D184" s="2">
         <v>0.44840696000000002</v>
@@ -3861,10 +3871,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B185" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D185" s="2">
         <v>0.41275372999999999</v>
@@ -3872,10 +3882,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B186" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D186" s="2">
         <v>0.39259972999999998</v>
@@ -3883,13 +3893,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B187" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D187" s="2">
         <v>0.64241886000000004</v>
@@ -3897,10 +3907,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B188" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D188" s="2">
         <v>0.60800109999999996</v>
@@ -3908,10 +3918,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B189" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D189" s="2">
         <v>0.60789006999999995</v>
@@ -3919,7 +3929,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B190" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>0</v>
@@ -3930,10 +3940,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B191" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D191" s="2">
         <v>0.5158684</v>
@@ -3941,13 +3951,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B192" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D192" s="2">
         <v>0.57124330000000001</v>
@@ -3955,10 +3965,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B193" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D193" s="2">
         <v>0.55820440000000004</v>
@@ -3966,10 +3976,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B194" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D194" s="2">
         <v>0.51780766</v>
@@ -3977,10 +3987,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B195" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D195" s="2">
         <v>0.47914796999999998</v>
@@ -3988,10 +3998,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B196" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D196" s="2">
         <v>0.42951328</v>
@@ -3999,13 +4009,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B197" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D197" s="2">
         <v>0.66713080000000002</v>
@@ -4013,10 +4023,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B198" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D198" s="2">
         <v>0.62319462999999997</v>
@@ -4024,10 +4034,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B199" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D199" s="2">
         <v>0.61955959999999999</v>
@@ -4035,10 +4045,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B200" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D200" s="2">
         <v>0.51780766</v>
@@ -4046,10 +4056,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B201" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="D201" s="2">
         <v>0.45414943000000002</v>
@@ -4057,13 +4067,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B202" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D202" s="2">
         <v>0.49620305999999997</v>
@@ -4071,10 +4081,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B203" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D203" s="2">
         <v>0.47528621999999998</v>
@@ -4082,7 +4092,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B204" t="s">
-        <v>241</v>
+        <v>435</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>1</v>
@@ -4093,10 +4103,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B205" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D205" s="2">
         <v>0.36079133000000002</v>
@@ -4104,10 +4114,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B206" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D206" s="2">
         <v>0.31902520000000001</v>
@@ -4115,13 +4125,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B207" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D207" s="2">
         <v>0.55601809999999996</v>
@@ -4129,10 +4139,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B208" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D208" s="2">
         <v>0.44944978000000002</v>
@@ -4140,10 +4150,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B209" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D209" s="2">
         <v>0.4026401</v>
@@ -4151,10 +4161,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B210" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D210" s="2">
         <v>0.37780343999999999</v>
@@ -4162,10 +4172,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B211" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="D211" s="2">
         <v>0.35237760000000001</v>
@@ -4173,13 +4183,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B212" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D212" s="2">
         <v>0.55601809999999996</v>
@@ -4187,10 +4197,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B213" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D213" s="2">
         <v>0.30625722</v>
@@ -4198,10 +4208,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B214" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="D214" s="2">
         <v>0.20884760999999999</v>
@@ -4209,10 +4219,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B215" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D215" s="2">
         <v>0.18462238</v>
@@ -4220,10 +4230,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B216" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D216" s="2">
         <v>0.15874356000000001</v>
@@ -4231,13 +4241,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B217" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D217" s="2">
         <v>0.49205314999999999</v>
@@ -4245,10 +4255,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B218" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D218" s="2">
         <v>0.38775705999999999</v>
@@ -4256,10 +4266,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B219" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D219" s="2">
         <v>0.37789250000000002</v>
@@ -4267,10 +4277,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B220" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D220" s="2">
         <v>0.34288043000000001</v>
@@ -4278,10 +4288,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B221" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D221" s="2">
         <v>0.33899944999999998</v>
@@ -4289,13 +4299,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B222" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="D222" s="2">
         <v>0.60857326</v>
@@ -4303,10 +4313,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B223" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D223" s="2">
         <v>0.48955547999999999</v>
@@ -4314,10 +4324,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B224" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D224" s="2">
         <v>0.43605283</v>
@@ -4325,10 +4335,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B225" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D225" s="2">
         <v>0.36545630000000001</v>
@@ -4336,10 +4346,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B226" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D226" s="2">
         <v>0.32538798000000002</v>
@@ -4347,13 +4357,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B227" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D227" s="2">
         <v>0.33709224999999998</v>
@@ -4361,10 +4371,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B228" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D228" s="2">
         <v>0.32546779999999997</v>
@@ -4372,10 +4382,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B229" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D229" s="2">
         <v>0.30335129999999999</v>
@@ -4383,10 +4393,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B230" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D230" s="2">
         <v>0.25738660000000002</v>
@@ -4394,10 +4404,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B231" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D231" s="2">
         <v>0.24732979999999999</v>
@@ -4405,13 +4415,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B232" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="D232" s="2">
         <v>0.45894307000000001</v>
@@ -4419,10 +4429,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B233" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D233" s="2">
         <v>0.44424307000000002</v>
@@ -4430,10 +4440,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B234" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D234" s="2">
         <v>0.33747642999999999</v>
@@ -4441,10 +4451,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B235" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D235" s="2">
         <v>0.28158464999999999</v>
@@ -4452,10 +4462,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B236" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D236" s="2">
         <v>0.26156926000000003</v>
@@ -4463,13 +4473,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B237" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D237" s="2">
         <v>0.75001390000000001</v>
@@ -4477,10 +4487,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B238" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D238" s="2">
         <v>0.51539235999999999</v>
@@ -4488,10 +4498,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B239" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D239" s="2">
         <v>0.40979248000000001</v>
@@ -4499,10 +4509,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B240" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D240" s="2">
         <v>0.37301107999999999</v>
@@ -4510,10 +4520,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B241" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D241" s="2">
         <v>0.33370438000000002</v>
@@ -4521,13 +4531,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>286</v>
+        <v>432</v>
       </c>
       <c r="B242" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D242" s="2">
         <v>0.52634110000000001</v>
@@ -4535,10 +4545,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B243" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D243" s="2">
         <v>0.34306645000000002</v>
@@ -4546,10 +4556,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B244" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D244" s="2">
         <v>0.29777520000000002</v>
@@ -4557,10 +4567,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B245" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D245" s="2">
         <v>0.29115229999999998</v>
@@ -4568,10 +4578,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B246" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D246" s="2">
         <v>0.28370127000000001</v>
@@ -4579,13 +4589,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="B247" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D247" s="2">
         <v>0.47961956</v>
@@ -4593,10 +4603,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B248" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D248" s="2">
         <v>0.34295009999999998</v>
@@ -4604,10 +4614,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B249" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D249" s="2">
         <v>0.30336952</v>
@@ -4615,7 +4625,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B250" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>17</v>
@@ -4626,10 +4636,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B251" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D251" s="2">
         <v>0.19868160000000001</v>
@@ -4637,13 +4647,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B252" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D252" s="2">
         <v>0.67384710000000003</v>
@@ -4651,10 +4661,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B253" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D253" s="2">
         <v>0.58311254000000001</v>
@@ -4662,10 +4672,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B254" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D254" s="2">
         <v>0.47082600000000002</v>
@@ -4673,10 +4683,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B255" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D255" s="2">
         <v>0.44503432999999998</v>
@@ -4684,10 +4694,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B256" t="s">
-        <v>303</v>
+        <v>445</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D256" s="2">
         <v>0.42185873000000002</v>
@@ -4695,13 +4705,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B257" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D257" s="2">
         <v>0.44840696000000002</v>
@@ -4709,10 +4719,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B258" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D258" s="2">
         <v>0.40702504</v>
@@ -4720,10 +4730,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B259" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="D259" s="2">
         <v>0.34290232999999998</v>
@@ -4731,10 +4741,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B260" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D260" s="2">
         <v>0.32998284999999999</v>
@@ -4742,10 +4752,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B261" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D261" s="2">
         <v>0.27869818000000002</v>
@@ -4753,13 +4763,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B262" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D262" s="2">
         <v>0.36112833</v>
@@ -4767,10 +4777,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B263" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D263" s="2">
         <v>0.35357696</v>
@@ -4778,10 +4788,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B264" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D264" s="2">
         <v>0.35237760000000001</v>
@@ -4789,10 +4799,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B265" t="s">
+        <v>297</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D265" s="2">
         <v>0.32665907999999999</v>
@@ -4800,10 +4810,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B266" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D266" s="2">
         <v>0.32448085999999998</v>
@@ -4811,13 +4821,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B267" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="D267" s="2">
         <v>0.28570688</v>
@@ -4825,10 +4835,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B268" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D268" s="2">
         <v>0.26589777999999997</v>
@@ -4836,10 +4846,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B269" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D269" s="2">
         <v>0.21100606</v>
@@ -4847,10 +4857,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B270" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D270" s="2">
         <v>0.19108711</v>
@@ -4858,7 +4868,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B271" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>1</v>
@@ -4869,13 +4879,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="B272" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D272" s="2">
         <v>0.51559710000000003</v>
@@ -4883,10 +4893,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B273" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D273" s="2">
         <v>0.45493784999999998</v>
@@ -4894,7 +4904,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B274" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>17</v>
@@ -4905,10 +4915,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B275" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D275" s="2">
         <v>0.39668006</v>
@@ -4916,10 +4926,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B276" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D276" s="2">
         <v>0.35418003999999997</v>
@@ -4927,13 +4937,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B277" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D277" s="2">
         <v>0.84392449999999997</v>
@@ -4941,10 +4951,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B278" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D278" s="2">
         <v>0.66631059999999998</v>
@@ -4952,10 +4962,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B279" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D279" s="2">
         <v>0.52926890000000004</v>
@@ -4963,10 +4973,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B280" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D280" s="2">
         <v>0.5158684</v>
@@ -4974,10 +4984,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B281" t="s">
-        <v>331</v>
+        <v>436</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D281" s="2">
         <v>0.48785309999999998</v>
@@ -4985,13 +4995,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B282" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D282" s="2">
         <v>0.33698939999999999</v>
@@ -4999,10 +5009,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B283" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="D283" s="2">
         <v>0.32665907999999999</v>
@@ -5010,10 +5020,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B284" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D284" s="2">
         <v>0.31396666000000001</v>
@@ -5021,10 +5031,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B285" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D285" s="2">
         <v>0.30336952</v>
@@ -5032,10 +5042,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B286" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D286" s="2">
         <v>0.29711510000000002</v>
@@ -5043,13 +5053,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B287" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D287" s="2">
         <v>0.53127219999999997</v>
@@ -5057,10 +5067,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B288" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D288" s="2">
         <v>0.48955547999999999</v>
@@ -5068,10 +5078,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B289" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D289" s="2">
         <v>0.47961956</v>
@@ -5079,10 +5089,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B290" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="D290" s="2">
         <v>0.38952819999999999</v>
@@ -5090,10 +5100,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B291" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D291" s="2">
         <v>0.34427485000000002</v>
@@ -5101,13 +5111,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B292" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D292" s="2">
         <v>0.53127219999999997</v>
@@ -5115,10 +5125,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B293" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D293" s="2">
         <v>0.43605283</v>
@@ -5126,10 +5136,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B294" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="D294" s="2">
         <v>0.34485513000000001</v>
@@ -5137,10 +5147,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B295" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D295" s="2">
         <v>0.34295009999999998</v>
@@ -5148,10 +5158,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B296" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D296" s="2">
         <v>0.30488786000000001</v>
@@ -5159,13 +5169,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B297" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D297" s="2">
         <v>0.72607577000000001</v>
@@ -5173,10 +5183,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B298" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D298" s="2">
         <v>0.67215230000000004</v>
@@ -5184,10 +5194,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B299" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D299" s="2">
         <v>0.56248920000000002</v>
@@ -5195,10 +5205,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B300" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D300" s="2">
         <v>0.54612075999999998</v>
@@ -5206,10 +5216,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B301" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D301" s="2">
         <v>0.45414943000000002</v>
@@ -5217,13 +5227,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B302" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D302" s="2">
         <v>0.51539235999999999</v>
@@ -5231,10 +5241,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B303" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D303" s="2">
         <v>0.42640435999999998</v>
@@ -5242,10 +5252,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B304" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D304" s="2">
         <v>0.32512503999999998</v>
@@ -5253,10 +5263,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B305" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D305" s="2">
         <v>0.32016188000000001</v>
@@ -5264,10 +5274,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B306" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D306" s="2">
         <v>0.2948113</v>
@@ -5275,13 +5285,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="B307" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D307" s="2">
         <v>0.49544614999999997</v>
@@ -5289,10 +5299,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B308" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D308" s="2">
         <v>0.37301107999999999</v>
@@ -5300,10 +5310,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B309" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D309" s="2">
         <v>0.32016188000000001</v>
@@ -5311,10 +5321,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B310" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D310" s="2">
         <v>0.29490912000000002</v>
@@ -5322,10 +5332,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B311" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D311" s="2">
         <v>0.25080276000000001</v>
@@ -5333,13 +5343,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="B312" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D312" s="2">
         <v>0.46558147999999999</v>
@@ -5347,10 +5357,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B313" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D313" s="2">
         <v>0.46333723999999998</v>
@@ -5358,10 +5368,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B314" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D314" s="2">
         <v>0.41386383999999998</v>
@@ -5369,10 +5379,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B315" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D315" s="2">
         <v>0.40803414999999998</v>
@@ -5380,10 +5390,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B316" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D316" s="2">
         <v>0.37379319999999999</v>
@@ -5391,13 +5401,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B317" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D317" s="2">
         <v>0.78430940000000005</v>
@@ -5405,10 +5415,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B318" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D318" s="2">
         <v>0.4953227</v>
@@ -5416,10 +5426,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B319" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D319" s="2">
         <v>0.47082600000000002</v>
@@ -5427,10 +5437,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B320" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D320" s="2">
         <v>0.41495470000000001</v>
@@ -5438,10 +5448,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B321" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D321" s="2">
         <v>0.39453559999999999</v>
@@ -5449,13 +5459,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B322" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="D322" s="2">
         <v>0.37862154999999997</v>
@@ -5463,10 +5473,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B323" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D323" s="2">
         <v>0.34787315000000002</v>
@@ -5474,10 +5484,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B324" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D324" s="2">
         <v>0.33899944999999998</v>
@@ -5485,10 +5495,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B325" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D325" s="2">
         <v>0.31784206999999998</v>
@@ -5496,10 +5506,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B326" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D326" s="2">
         <v>0.29255658000000001</v>
@@ -5507,13 +5517,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B327" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D327" s="2">
         <v>0.42185873000000002</v>
@@ -5521,10 +5531,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B328" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="D328" s="2">
         <v>0.34689429999999999</v>
@@ -5532,10 +5542,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B329" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D329" s="2">
         <v>0.30579240000000002</v>
@@ -5543,10 +5553,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B330" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D330" s="2">
         <v>0.28818909999999998</v>
@@ -5554,10 +5564,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B331" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D331" s="2">
         <v>0.26354250000000001</v>
@@ -5565,13 +5575,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="B332" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D332" s="2">
         <v>0.48444959999999998</v>
@@ -5579,10 +5589,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B333" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D333" s="2">
         <v>0.45493784999999998</v>
@@ -5590,10 +5600,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B334" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="D334" s="2">
         <v>0.45183074000000001</v>
@@ -5601,10 +5611,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B335" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D335" s="2">
         <v>0.4026401</v>
@@ -5612,10 +5622,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B336" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D336" s="2">
         <v>0.36545630000000001</v>
@@ -5623,13 +5633,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B337" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D337" s="2">
         <v>0.60857326</v>
@@ -5637,10 +5647,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B338" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D338" s="2">
         <v>0.57319164</v>
@@ -5648,10 +5658,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B339" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D339" s="2">
         <v>0.46821868</v>
@@ -5659,10 +5669,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B340" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D340" s="2">
         <v>0.45183074000000001</v>
@@ -5670,10 +5680,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B341" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D341" s="2">
         <v>0.41731659999999998</v>
@@ -5681,10 +5691,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="B342" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>7</v>
@@ -5695,10 +5705,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B343" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D343" s="2">
         <v>0.37862154999999997</v>
@@ -5706,10 +5716,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B344" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D344" s="2">
         <v>0.30931950000000002</v>
@@ -5717,10 +5727,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B345" t="s">
+        <v>387</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="D345" s="2">
         <v>0.30311257000000003</v>
@@ -5728,10 +5738,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B346" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D346" s="2">
         <v>0.2638644</v>
@@ -5739,13 +5749,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="B347" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D347" s="2">
         <v>0.65399269999999998</v>
@@ -5753,10 +5763,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B348" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D348" s="2">
         <v>0.62753570000000003</v>
@@ -5764,10 +5774,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B349" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D349" s="2">
         <v>0.60789006999999995</v>
@@ -5775,10 +5785,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B350" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D350" s="2">
         <v>0.52926890000000004</v>
@@ -5786,7 +5796,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B351" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>0</v>
@@ -5797,13 +5807,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="B352" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D352" s="2">
         <v>0.3593635</v>
@@ -5811,7 +5821,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B353" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>17</v>
@@ -5822,10 +5832,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B354" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D354" s="2">
         <v>0.28570688</v>
@@ -5833,10 +5843,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B355" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D355" s="2">
         <v>0.26366693000000002</v>
@@ -5844,10 +5854,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B356" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D356" s="2">
         <v>0.25565144000000001</v>
@@ -5855,13 +5865,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="B357" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D357" s="2">
         <v>0.52325390000000005</v>
@@ -5869,10 +5879,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B358" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D358" s="2">
         <v>0.3112144</v>
@@ -5880,10 +5890,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B359" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D359" s="2">
         <v>0.29995804999999998</v>
@@ -5891,10 +5901,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B360" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D360" s="2">
         <v>0.29976206999999999</v>
@@ -5902,10 +5912,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B361" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D361" s="2">
         <v>0.24961340000000001</v>
@@ -5913,13 +5923,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="B362" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D362" s="2">
         <v>0.78430940000000005</v>
@@ -5927,10 +5937,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B363" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D363" s="2">
         <v>0.58472729999999995</v>
@@ -5938,10 +5948,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B364" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D364" s="2">
         <v>0.58311254000000001</v>
@@ -5949,7 +5959,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B365" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>7</v>
@@ -5960,10 +5970,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B366" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D366" s="2">
         <v>0.31200492000000002</v>
